--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conte\OneDrive\Escritorio\Colegio Bourbaki\DL\RedesConvolucionales\Mauna_Kea\MultiClassifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD534B0-8033-4DF1-A780-4798D1C9233D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF63635B-249B-4F8A-B8B8-C95566900BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0B103A2E-05D7-4C85-AF18-F6C3FEADD902}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="B2:O11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +904,9 @@
       <c r="N10" s="1">
         <v>93.99</v>
       </c>
+      <c r="O10" s="1">
+        <v>78.790000000000006</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
@@ -941,6 +944,9 @@
       </c>
       <c r="N11" s="1">
         <v>47.83</v>
+      </c>
+      <c r="O11" s="1">
+        <v>37.99</v>
       </c>
     </row>
   </sheetData>
